--- a/proyecto eolico.xlsx
+++ b/proyecto eolico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info User\Desktop\3er semestre\Herramientas Computacionales\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0891773-60F4-451B-90EB-CA9358729C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A725E6-8C64-4D9C-A94D-21403A80E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>FUNCIÓN OBJETIVO</t>
   </si>
@@ -152,13 +152,16 @@
   </si>
   <si>
     <t>11750x1+9400x2+8812,5x3</t>
+  </si>
+  <si>
+    <t>HOLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +215,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -273,27 +284,27 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,29 +619,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D7D2DB-09D8-49C5-9BF4-D03B14ACA27D}">
-  <dimension ref="B3:H22"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="16"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -643,7 +653,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -656,7 +666,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -669,7 +679,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -678,34 +688,34 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13">
+      <c r="F9" s="14"/>
+      <c r="G9" s="9">
         <f>(11750*F4)+(9400*F5)+(8812.5*F6)</f>
         <v>92825.009399999981</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -714,23 +724,23 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <f>F4</f>
         <v>4</v>
       </c>
@@ -744,14 +754,13 @@
         <f>D12&lt;=F12</f>
         <v>1</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <f>F4</f>
         <v>4</v>
       </c>
@@ -765,14 +774,13 @@
         <f>D13&gt;=F13</f>
         <v>1</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <f>F5</f>
         <v>3.0000009999999988</v>
       </c>
@@ -786,14 +794,13 @@
         <f>D14&gt;=F14</f>
         <v>1</v>
       </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <f>F6</f>
         <v>2</v>
       </c>
@@ -807,14 +814,13 @@
         <f>D15&gt;=F15</f>
         <v>1</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <f>F4</f>
         <v>4</v>
       </c>
@@ -828,14 +834,13 @@
         <f>C16&gt;=F16</f>
         <v>1</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="12">
         <f>F5</f>
         <v>3.0000009999999988</v>
       </c>
@@ -849,14 +854,13 @@
         <f>C17&gt;=F17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <f>F6</f>
         <v>2</v>
       </c>
@@ -870,30 +874,29 @@
         <f>C18&gt;=F18</f>
         <v>1</v>
       </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="12">
         <f>F4+F5+F6</f>
         <v>9.0000009999999993</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>9</v>
       </c>
-      <c r="G19" s="15" t="b">
+      <c r="G19" s="11" t="b">
         <f>D19=F19</f>
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
@@ -902,23 +905,11 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="F21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/proyecto eolico.xlsx
+++ b/proyecto eolico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info User\Desktop\3er semestre\Herramientas Computacionales\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A725E6-8C64-4D9C-A94D-21403A80E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C5EE7-C100-4DF9-9D10-C4946242E8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
   </bookViews>
@@ -295,6 +295,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,7 +305,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +622,7 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F2" s="16"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -691,11 +691,11 @@
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -705,10 +705,10 @@
       <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="9">
         <f>(11750*F4)+(9400*F5)+(8812.5*F6)</f>
         <v>92825.009399999981</v>
@@ -727,11 +727,11 @@
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>

--- a/proyecto eolico.xlsx
+++ b/proyecto eolico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info User\Desktop\3er semestre\Herramientas Computacionales\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C5EE7-C100-4DF9-9D10-C4946242E8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D2CAE-5F36-4106-B4C2-F3FC0E2385A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>11750x1+9400x2+8812,5x3</t>
   </si>
   <si>
-    <t>HOLA</t>
+    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +305,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D7D2DB-09D8-49C5-9BF4-D03B14ACA27D}">
-  <dimension ref="B1:H21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,15 +633,16 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -653,7 +655,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -666,7 +668,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -679,7 +681,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -688,7 +690,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="14" t="s">
@@ -699,7 +701,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -715,7 +717,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -724,7 +726,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16" t="s">
@@ -735,7 +737,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -755,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -775,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -795,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -815,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
         <v>11</v>

--- a/proyecto eolico.xlsx
+++ b/proyecto eolico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info User\Desktop\3er semestre\Herramientas Computacionales\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D2CAE-5F36-4106-B4C2-F3FC0E2385A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D392D540-E802-4C18-88E9-CE738CDA42CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>FUNCIÓN OBJETIVO</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>11750x1+9400x2+8812,5x3</t>
-  </si>
-  <si>
-    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -265,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,7 +302,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,11 +616,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D7D2DB-09D8-49C5-9BF4-D03B14ACA27D}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -633,16 +627,10 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F2" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -655,7 +643,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -668,7 +656,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -681,7 +669,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -690,7 +678,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="14" t="s">
@@ -701,7 +689,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -717,7 +705,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -726,7 +714,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16" t="s">
@@ -737,7 +725,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -757,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -777,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -797,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -817,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
         <v>11</v>

--- a/proyecto eolico.xlsx
+++ b/proyecto eolico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info User\Desktop\3er semestre\Herramientas Computacionales\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D392D540-E802-4C18-88E9-CE738CDA42CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E676BA-408E-4CDE-BD1A-F26C01641F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>=</t>
   </si>
   <si>
-    <t>11750x1+9400x2+8812,5x3</t>
+    <t>2350x1+1880x2+1645x3</t>
   </si>
 </sst>
 </file>
@@ -616,9 +616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D7D2DB-09D8-49C5-9BF4-D03B14ACA27D}">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -627,10 +629,10 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F2" s="13"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -643,7 +645,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -656,7 +658,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -669,7 +671,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -678,7 +680,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="14" t="s">
@@ -689,7 +691,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -700,12 +702,12 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="9">
-        <f>(11750*F4)+(9400*F5)+(8812.5*F6)</f>
-        <v>92825.009399999981</v>
+        <f>(2350*F4)+(1880*F5)+(1645*F6)</f>
+        <v>18330.001879999996</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -714,7 +716,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16" t="s">
@@ -725,7 +727,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -745,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -765,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -785,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -805,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -824,6 +826,7 @@
         <f>C16&gt;=F16</f>
         <v>1</v>
       </c>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>

--- a/proyecto eolico.xlsx
+++ b/proyecto eolico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info User\Desktop\3er semestre\Herramientas Computacionales\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E676BA-408E-4CDE-BD1A-F26C01641F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B80540A-7D65-4B91-8479-513C00434AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>=</t>
   </si>
   <si>
-    <t>2350x1+1880x2+1645x3</t>
+    <t>2350x1+1997.5x2+1645x3</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,6 +302,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +620,7 @@
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +691,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -702,8 +704,8 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="9">
-        <f>(2350*F4)+(1880*F5)+(1645*F6)</f>
-        <v>18330.001879999996</v>
+        <f>(2350*F4)+(1997.5*F5)+(1645*F6)</f>
+        <v>18682.501997499996</v>
       </c>
       <c r="H9" s="1"/>
     </row>

--- a/proyecto eolico.xlsx
+++ b/proyecto eolico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info User\Desktop\3er semestre\Herramientas Computacionales\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B80540A-7D65-4B91-8479-513C00434AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA377171-D3E3-4A99-91F4-75372BA0EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EE6840E3-52F1-42F7-B8A3-7563816B31B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>FUNCIÓN OBJETIVO</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2350x1+1997.5x2+1645x3</t>
+  </si>
+  <si>
+    <t>kW</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -258,6 +261,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -284,7 +313,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,6 +321,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,7 +334,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,20 +651,20 @@
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F2" s="13"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -646,7 +677,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -659,7 +690,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -672,7 +703,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -681,35 +712,36 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="9">
+      <c r="F9" s="16"/>
+      <c r="G9" s="13">
         <f>(2350*F4)+(1997.5*F5)+(1645*F6)</f>
         <v>18682.501997499996</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -718,23 +750,23 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <f>F4</f>
         <v>4</v>
       </c>
@@ -749,12 +781,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <f>F4</f>
         <v>4</v>
       </c>
@@ -769,12 +801,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>F5</f>
         <v>3.0000009999999988</v>
       </c>
@@ -789,12 +821,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f>F6</f>
         <v>2</v>
       </c>
@@ -809,12 +841,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <f>F4</f>
         <v>4</v>
       </c>
@@ -828,14 +860,14 @@
         <f>C16&gt;=F16</f>
         <v>1</v>
       </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f>F5</f>
         <v>3.0000009999999988</v>
       </c>
@@ -850,12 +882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <f>F6</f>
         <v>2</v>
       </c>
@@ -870,28 +902,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f>F4+F5+F6</f>
         <v>9.0000009999999993</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>9</v>
       </c>
-      <c r="G19" s="11" t="b">
+      <c r="G19" s="10" t="b">
         <f>D19=F19</f>
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
@@ -900,11 +932,11 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
